--- a/output/part1/total_factors_corr.xlsx
+++ b/output/part1/total_factors_corr.xlsx
@@ -520,46 +520,46 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1128905539222745</v>
+        <v>0.323799641721889</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1230362357849708</v>
+        <v>0.7555442988502048</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1017257385858709</v>
+        <v>-0.2498931886842296</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02677045312100435</v>
+        <v>-0.006045411213057164</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008409981137425178</v>
+        <v>0.323799641721889</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05533434288321238</v>
+        <v>0.7555442988502048</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.04734839771227799</v>
+        <v>-0.2498931886842296</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03837290516151023</v>
+        <v>-0.006045411213057164</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0251099060395931</v>
+        <v>-0.01917933785190364</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3354144270813558</v>
+        <v>-0.5864791365772161</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09792349316813341</v>
+        <v>0.2019530246563825</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1355573738318501</v>
+        <v>-0.2545595402151047</v>
       </c>
     </row>
     <row r="3">
@@ -569,49 +569,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1128905539222745</v>
+        <v>0.323799641721889</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5021810010641805</v>
+        <v>0.3962439059502366</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.08654864153754947</v>
+        <v>-0.1800546013261557</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1411397734446701</v>
+        <v>-0.3362354095419539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1128905539222745</v>
+        <v>0.3237996417218891</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3250292518288844</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3568857180662151</v>
+        <v>0.3962439059502366</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1095688940069599</v>
+        <v>-0.1800546013261557</v>
       </c>
       <c r="K3" t="n">
-        <v>0.137916665007269</v>
+        <v>-0.3362354095419539</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1128905539222745</v>
+        <v>0.3237996417218891</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4707164586175852</v>
+        <v>0.4130445827457469</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4399787134396531</v>
+        <v>-0.4611548869416665</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3115450965192918</v>
+        <v>0.2425999198641816</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.07604834632349551</v>
+        <v>0.07364185281972291</v>
       </c>
     </row>
     <row r="4">
@@ -621,49 +621,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1230362357849708</v>
+        <v>0.7555442988502048</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5021810010641805</v>
+        <v>0.3962439059502366</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01768913545374104</v>
+        <v>-0.1426760180749146</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4596295249894234</v>
+        <v>-0.03264241957040208</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1230362357849708</v>
+        <v>0.7555442988502049</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.03902167804182972</v>
+        <v>0.3962439059502366</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2581348660343643</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003073680174550949</v>
+        <v>-0.1426760180749146</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03058225123390017</v>
+        <v>-0.03264241957040208</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1230362357849708</v>
+        <v>0.7555442988502049</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2177575547682458</v>
+        <v>0.09237240891518564</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.3423736535834035</v>
+        <v>-0.5471734752080594</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2462901622186524</v>
+        <v>0.2016028559016793</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.234805018784471</v>
+        <v>-0.1892737362199487</v>
       </c>
     </row>
     <row r="5">
@@ -673,49 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1017257385858709</v>
+        <v>-0.2498931886842296</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.08654864153754947</v>
+        <v>-0.1800546013261557</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01768913545374104</v>
+        <v>-0.1426760180749146</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05580077120162508</v>
+        <v>0.02530208406707743</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1017257385858709</v>
+        <v>-0.2498931886842295</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05540463757172702</v>
+        <v>-0.1800546013261557</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02414410485587059</v>
+        <v>-0.1426760180749146</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.02272845444696428</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006338243066758679</v>
+        <v>0.02530208406707743</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1017257385858709</v>
+        <v>-0.2498931886842295</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08229269624209704</v>
+        <v>0.06722331682273598</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1103671093149381</v>
+        <v>0.1272006909638258</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03209908992964043</v>
+        <v>-0.04649015646051528</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02574779027887121</v>
+        <v>0.03693963816442876</v>
       </c>
     </row>
     <row r="6">
@@ -725,49 +725,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02677045312100435</v>
+        <v>-0.006045411213057164</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1411397734446701</v>
+        <v>-0.3362354095419539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4596295249894234</v>
+        <v>-0.03264241957040208</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05580077120162508</v>
+        <v>0.02530208406707743</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02677045312100437</v>
+        <v>-0.006045411213057154</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1335338816811912</v>
+        <v>-0.336235409541954</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007353990765847247</v>
+        <v>-0.03264241957040209</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09192094778493499</v>
+        <v>0.02530208406707743</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.2217166933483324</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.02677045312100437</v>
+        <v>-0.006045411213057154</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1573976062120347</v>
+        <v>-0.545766696202424</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1693734574259033</v>
+        <v>0.4941076255294825</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1058854461801257</v>
+        <v>-0.4774024123023282</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.5634735621228806</v>
+        <v>-0.6169364305255066</v>
       </c>
     </row>
     <row r="7">
@@ -780,46 +780,46 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1128905539222745</v>
+        <v>0.3237996417218891</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1230362357849708</v>
+        <v>0.7555442988502049</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1017257385858709</v>
+        <v>-0.2498931886842295</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02677045312100437</v>
+        <v>-0.006045411213057154</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008409981137425178</v>
+        <v>0.323799641721889</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05533434288321238</v>
+        <v>0.7555442988502048</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.04734839771227799</v>
+        <v>-0.2498931886842296</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03837290516151023</v>
+        <v>-0.006045411213057164</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0251099060395931</v>
+        <v>-0.01917933785190364</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.3354144270813558</v>
+        <v>-0.5864791365772161</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09792349316813341</v>
+        <v>0.2019530246563825</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1355573738318501</v>
+        <v>-0.2545595402151047</v>
       </c>
     </row>
     <row r="8">
@@ -829,49 +829,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008409981137425178</v>
+        <v>0.323799641721889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3250292518288844</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.03902167804182972</v>
+        <v>0.3962439059502366</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05540463757172702</v>
+        <v>-0.1800546013261557</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1335338816811912</v>
+        <v>-0.336235409541954</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008409981137425178</v>
+        <v>0.323799641721889</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3118643591448185</v>
+        <v>0.3962439059502366</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6867851726342711</v>
+        <v>-0.1800546013261557</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.7055053265422794</v>
+        <v>-0.3362354095419539</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008409981137425164</v>
+        <v>0.3237996417218891</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8354412817977032</v>
+        <v>0.4130445827457469</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2832252359927608</v>
+        <v>-0.4611548869416665</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7606936588334302</v>
+        <v>0.2425999198641816</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.4511941071835907</v>
+        <v>0.07364185281972291</v>
       </c>
     </row>
     <row r="9">
@@ -881,49 +881,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05533434288321238</v>
+        <v>0.7555442988502048</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3568857180662151</v>
+        <v>0.3962439059502366</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2581348660343643</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02414410485587059</v>
+        <v>-0.1426760180749146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007353990765847247</v>
+        <v>-0.03264241957040209</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05533434288321238</v>
+        <v>0.7555442988502048</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3118643591448185</v>
+        <v>0.3962439059502366</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07704199818806559</v>
+        <v>-0.1426760180749146</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0873933992394893</v>
+        <v>-0.03264241957040208</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05533434288321235</v>
+        <v>0.7555442988502049</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09386412249559169</v>
+        <v>0.09237240891518564</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0241035694163918</v>
+        <v>-0.5471734752080594</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07717034012054313</v>
+        <v>0.2016028559016793</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.2028265698300958</v>
+        <v>-0.1892737362199487</v>
       </c>
     </row>
     <row r="10">
@@ -933,49 +933,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.04734839771227799</v>
+        <v>-0.2498931886842296</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1095688940069599</v>
+        <v>-0.1800546013261557</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003073680174550949</v>
+        <v>-0.1426760180749146</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.02272845444696428</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09192094778493499</v>
+        <v>0.02530208406707743</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04734839771227799</v>
+        <v>-0.2498931886842296</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6867851726342711</v>
+        <v>-0.1800546013261557</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07704199818806559</v>
+        <v>-0.1426760180749146</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.8301508710155681</v>
+        <v>0.02530208406707743</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.04734839771227797</v>
+        <v>-0.2498931886842295</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5457914069095491</v>
+        <v>0.06722331682273598</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5788141623389281</v>
+        <v>0.1272006909638258</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6721737153978806</v>
+        <v>-0.04649015646051528</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.5653917491107154</v>
+        <v>0.03693963816442876</v>
       </c>
     </row>
     <row r="11">
@@ -985,49 +985,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03837290516151023</v>
+        <v>-0.006045411213057164</v>
       </c>
       <c r="C11" t="n">
-        <v>0.137916665007269</v>
+        <v>-0.3362354095419539</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03058225123390017</v>
+        <v>-0.03264241957040208</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006338243066758679</v>
+        <v>0.02530208406707743</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2217166933483324</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03837290516151023</v>
+        <v>-0.006045411213057164</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.7055053265422794</v>
+        <v>-0.3362354095419539</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0873933992394893</v>
+        <v>-0.03264241957040208</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.8301508710155681</v>
+        <v>0.02530208406707743</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0383729051615102</v>
+        <v>-0.006045411213057154</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.3904795538972027</v>
+        <v>-0.545766696202424</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.6957029138939991</v>
+        <v>0.4941076255294825</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.4762404109693391</v>
+        <v>-0.4774024123023282</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7955013872750994</v>
+        <v>-0.6169364305255066</v>
       </c>
     </row>
     <row r="12">
@@ -1040,46 +1040,46 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1128905539222745</v>
+        <v>0.3237996417218891</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1230362357849708</v>
+        <v>0.7555442988502049</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1017257385858709</v>
+        <v>-0.2498931886842295</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02677045312100437</v>
+        <v>-0.006045411213057154</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.008409981137425164</v>
+        <v>0.3237996417218891</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05533434288321235</v>
+        <v>0.7555442988502049</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.04734839771227797</v>
+        <v>-0.2498931886842295</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0383729051615102</v>
+        <v>-0.006045411213057154</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0251099060395931</v>
+        <v>-0.01917933785190364</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.3354144270813558</v>
+        <v>-0.5864791365772161</v>
       </c>
       <c r="O12" t="n">
-        <v>0.09792349316813341</v>
+        <v>0.2019530246563825</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.1355573738318501</v>
+        <v>-0.2545595402151047</v>
       </c>
     </row>
     <row r="13">
@@ -1089,49 +1089,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0251099060395931</v>
+        <v>-0.01917933785190364</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4707164586175852</v>
+        <v>0.4130445827457469</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2177575547682458</v>
+        <v>0.09237240891518564</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08229269624209704</v>
+        <v>0.06722331682273598</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1573976062120347</v>
+        <v>-0.545766696202424</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0251099060395931</v>
+        <v>-0.01917933785190364</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8354412817977032</v>
+        <v>0.4130445827457469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09386412249559169</v>
+        <v>0.09237240891518564</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5457914069095491</v>
+        <v>0.06722331682273598</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.3904795538972027</v>
+        <v>-0.545766696202424</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0251099060395931</v>
+        <v>-0.01917933785190364</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.04035826870260987</v>
+        <v>0.04820155874753494</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8777979469466235</v>
+        <v>0.8780838429650567</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1695575876804144</v>
+        <v>-0.08138554629115878</v>
       </c>
     </row>
     <row r="14">
@@ -1141,49 +1141,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3354144270813558</v>
+        <v>-0.5864791365772161</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4399787134396531</v>
+        <v>-0.4611548869416665</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3423736535834035</v>
+        <v>-0.5471734752080594</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1103671093149381</v>
+        <v>0.1272006909638258</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1693734574259033</v>
+        <v>0.4941076255294825</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.3354144270813558</v>
+        <v>-0.5864791365772161</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2832252359927608</v>
+        <v>-0.4611548869416665</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0241035694163918</v>
+        <v>-0.5471734752080594</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5788141623389281</v>
+        <v>0.1272006909638258</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.6957029138939991</v>
+        <v>0.4941076255294825</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.3354144270813558</v>
+        <v>-0.5864791365772161</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.04035826870260987</v>
+        <v>0.04820155874753494</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.08145103724689552</v>
+        <v>0.007524513946420188</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.4018286165618783</v>
+        <v>-0.536789932940771</v>
       </c>
     </row>
     <row r="15">
@@ -1193,49 +1193,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09792349316813341</v>
+        <v>0.2019530246563825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3115450965192918</v>
+        <v>0.2425999198641816</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2462901622186524</v>
+        <v>0.2016028559016793</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03209908992964043</v>
+        <v>-0.04649015646051528</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1058854461801257</v>
+        <v>-0.4774024123023282</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09792349316813341</v>
+        <v>0.2019530246563825</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7606936588334302</v>
+        <v>0.2425999198641816</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07717034012054313</v>
+        <v>0.2016028559016793</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6721737153978806</v>
+        <v>-0.04649015646051528</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.4762404109693391</v>
+        <v>-0.4774024123023282</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09792349316813341</v>
+        <v>0.2019530246563825</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8777979469466235</v>
+        <v>0.8780838429650567</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.08145103724689552</v>
+        <v>0.007524513946420188</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.2956322619153064</v>
+        <v>-0.2182122118000741</v>
       </c>
     </row>
     <row r="16">
@@ -1245,46 +1245,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1355573738318501</v>
+        <v>-0.2545595402151047</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.07604834632349551</v>
+        <v>0.07364185281972291</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.234805018784471</v>
+        <v>-0.1892737362199487</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02574779027887121</v>
+        <v>0.03693963816442876</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5634735621228806</v>
+        <v>-0.6169364305255066</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1355573738318501</v>
+        <v>-0.2545595402151047</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.4511941071835907</v>
+        <v>0.07364185281972291</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2028265698300958</v>
+        <v>-0.1892737362199487</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.5653917491107154</v>
+        <v>0.03693963816442876</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7955013872750994</v>
+        <v>-0.6169364305255066</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.1355573738318501</v>
+        <v>-0.2545595402151047</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1695575876804144</v>
+        <v>-0.08138554629115878</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.4018286165618783</v>
+        <v>-0.536789932940771</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.2956322619153064</v>
+        <v>-0.2182122118000741</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
